--- a/Code/Results/Cases/Case_1_173/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_173/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002002075589615</v>
+        <v>1.085285357373827</v>
       </c>
       <c r="D2">
-        <v>1.051535301357228</v>
+        <v>1.075804248105593</v>
       </c>
       <c r="E2">
-        <v>1.020053549046161</v>
+        <v>1.085790653579353</v>
       </c>
       <c r="F2">
-        <v>1.042177869468887</v>
+        <v>1.091945119229056</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063779672711007</v>
+        <v>1.054874438299318</v>
       </c>
       <c r="J2">
-        <v>1.024123069374343</v>
+        <v>1.090140975215735</v>
       </c>
       <c r="K2">
-        <v>1.062320488858586</v>
+        <v>1.078489851521646</v>
       </c>
       <c r="L2">
-        <v>1.031240400413408</v>
+        <v>1.088450171361276</v>
       </c>
       <c r="M2">
-        <v>1.053079283670038</v>
+        <v>1.094588817171968</v>
       </c>
       <c r="N2">
-        <v>1.025577441601412</v>
+        <v>1.091689100441459</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015726660486364</v>
+        <v>1.087727981886532</v>
       </c>
       <c r="D3">
-        <v>1.058741594104172</v>
+        <v>1.077035246297037</v>
       </c>
       <c r="E3">
-        <v>1.031441676135707</v>
+        <v>1.087832406976849</v>
       </c>
       <c r="F3">
-        <v>1.052139268990342</v>
+        <v>1.093713350435646</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067273224369786</v>
+        <v>1.055339924768057</v>
       </c>
       <c r="J3">
-        <v>1.035797592602049</v>
+        <v>1.092239953658483</v>
       </c>
       <c r="K3">
-        <v>1.068674235243351</v>
+        <v>1.079537221343549</v>
       </c>
       <c r="L3">
-        <v>1.041687459924657</v>
+        <v>1.090308249021628</v>
       </c>
       <c r="M3">
-        <v>1.062145805954678</v>
+        <v>1.096175191546702</v>
       </c>
       <c r="N3">
-        <v>1.037268543991188</v>
+        <v>1.093791059674352</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024177629686276</v>
+        <v>1.089302210823541</v>
       </c>
       <c r="D4">
-        <v>1.063192081581098</v>
+        <v>1.077827588592081</v>
       </c>
       <c r="E4">
-        <v>1.038460078286498</v>
+        <v>1.089147715689942</v>
       </c>
       <c r="F4">
-        <v>1.058284914774381</v>
+        <v>1.094852229045761</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.069410420342399</v>
+        <v>1.055637481483805</v>
       </c>
       <c r="J4">
-        <v>1.042982457116291</v>
+        <v>1.09359174519508</v>
       </c>
       <c r="K4">
-        <v>1.072583271277217</v>
+        <v>1.080210182827273</v>
       </c>
       <c r="L4">
-        <v>1.048115467378731</v>
+        <v>1.091504310248888</v>
       </c>
       <c r="M4">
-        <v>1.067727324720934</v>
+        <v>1.09719593976768</v>
       </c>
       <c r="N4">
-        <v>1.044463611837156</v>
+        <v>1.095144770909984</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027637310342376</v>
+        <v>1.089962545482188</v>
       </c>
       <c r="D5">
-        <v>1.065016486922981</v>
+        <v>1.078159700573001</v>
       </c>
       <c r="E5">
-        <v>1.041334419222256</v>
+        <v>1.089699305117754</v>
       </c>
       <c r="F5">
-        <v>1.060803105971612</v>
+        <v>1.095329774034578</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.070281693721496</v>
+        <v>1.055761709754973</v>
       </c>
       <c r="J5">
-        <v>1.04592272788607</v>
+        <v>1.094158543630963</v>
       </c>
       <c r="K5">
-        <v>1.074182256484127</v>
+        <v>1.080491972232219</v>
       </c>
       <c r="L5">
-        <v>1.050745559848008</v>
+        <v>1.092005671303806</v>
       </c>
       <c r="M5">
-        <v>1.070011554425458</v>
+        <v>1.097623712110326</v>
       </c>
       <c r="N5">
-        <v>1.047408058128682</v>
+        <v>1.095712374264658</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028213002588687</v>
+        <v>1.090073333461648</v>
       </c>
       <c r="D6">
-        <v>1.065320194045388</v>
+        <v>1.078215406111953</v>
       </c>
       <c r="E6">
-        <v>1.041812768157768</v>
+        <v>1.089791840218525</v>
       </c>
       <c r="F6">
-        <v>1.061222252200418</v>
+        <v>1.095409883992166</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.070426450454143</v>
+        <v>1.055782517755608</v>
       </c>
       <c r="J6">
-        <v>1.046411921190902</v>
+        <v>1.094253624928233</v>
       </c>
       <c r="K6">
-        <v>1.074448237620388</v>
+        <v>1.080539220462771</v>
       </c>
       <c r="L6">
-        <v>1.051183117461288</v>
+        <v>1.092089767118702</v>
       </c>
       <c r="M6">
-        <v>1.070391595092156</v>
+        <v>1.097695458497801</v>
       </c>
       <c r="N6">
-        <v>1.047897946144117</v>
+        <v>1.095807590588276</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.024224212151578</v>
+        <v>1.089311039974704</v>
       </c>
       <c r="D7">
-        <v>1.063216637206989</v>
+        <v>1.077832030152311</v>
       </c>
       <c r="E7">
-        <v>1.038498775445095</v>
+        <v>1.089155091380388</v>
       </c>
       <c r="F7">
-        <v>1.0583188123583</v>
+        <v>1.094858614861395</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069422166409633</v>
+        <v>1.055639144814616</v>
       </c>
       <c r="J7">
-        <v>1.043022050596592</v>
+        <v>1.093599324610461</v>
       </c>
       <c r="K7">
-        <v>1.072604806450118</v>
+        <v>1.08021395250559</v>
       </c>
       <c r="L7">
-        <v>1.048150885929973</v>
+        <v>1.091511015167703</v>
       </c>
       <c r="M7">
-        <v>1.067758083991038</v>
+        <v>1.097201660955182</v>
       </c>
       <c r="N7">
-        <v>1.044503261544741</v>
+        <v>1.095152361089003</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006735746142632</v>
+        <v>1.086112185062391</v>
       </c>
       <c r="D8">
-        <v>1.054017489315256</v>
+        <v>1.076221148058232</v>
       </c>
       <c r="E8">
-        <v>1.023979827812709</v>
+        <v>1.086481902953986</v>
       </c>
       <c r="F8">
-        <v>1.045610672533908</v>
+        <v>1.092543811175247</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.064987399211966</v>
+        <v>1.055032510940251</v>
       </c>
       <c r="J8">
-        <v>1.028150346787617</v>
+        <v>1.09085167839765</v>
       </c>
       <c r="K8">
-        <v>1.064512289469164</v>
+        <v>1.078844809207014</v>
       </c>
       <c r="L8">
-        <v>1.034844485963873</v>
+        <v>1.089079427840996</v>
       </c>
       <c r="M8">
-        <v>1.056206326815077</v>
+        <v>1.095126143584516</v>
       </c>
       <c r="N8">
-        <v>1.029610438210548</v>
+        <v>1.092400812903411</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9720840538932187</v>
+        <v>1.080425233092606</v>
       </c>
       <c r="D9">
-        <v>1.035944223212912</v>
+        <v>1.073349715429244</v>
       </c>
       <c r="E9">
-        <v>0.9952844544921764</v>
+        <v>1.08172519410482</v>
       </c>
       <c r="F9">
-        <v>1.020566183387233</v>
+        <v>1.088423185686085</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056099465764256</v>
+        <v>1.053935277475849</v>
       </c>
       <c r="J9">
-        <v>0.998662627900994</v>
+        <v>1.08595948464054</v>
       </c>
       <c r="K9">
-        <v>1.048479857842863</v>
+        <v>1.07639508135159</v>
       </c>
       <c r="L9">
-        <v>1.008454504265944</v>
+        <v>1.084745486745364</v>
       </c>
       <c r="M9">
-        <v>1.033334173833279</v>
+        <v>1.091423729042012</v>
       </c>
       <c r="N9">
-        <v>1.000080843380818</v>
+        <v>1.087501671670023</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9454087636148204</v>
+        <v>1.076597644989844</v>
       </c>
       <c r="D10">
-        <v>1.022215232575165</v>
+        <v>1.071412322333998</v>
       </c>
       <c r="E10">
-        <v>0.9732837281238101</v>
+        <v>1.078520918950357</v>
       </c>
       <c r="F10">
-        <v>1.00144521916387</v>
+        <v>1.08564645213221</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049219488121637</v>
+        <v>1.053184276542904</v>
       </c>
       <c r="J10">
-        <v>0.9759692114495134</v>
+        <v>1.08266186395706</v>
       </c>
       <c r="K10">
-        <v>1.036194643405587</v>
+        <v>1.074735991687704</v>
       </c>
       <c r="L10">
-        <v>0.9881527095539777</v>
+        <v>1.08182117119621</v>
       </c>
       <c r="M10">
-        <v>1.015788428668139</v>
+        <v>1.088923568601901</v>
       </c>
       <c r="N10">
-        <v>0.9773551996750051</v>
+        <v>1.084199367986931</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.932683081722227</v>
+        <v>1.07493107349347</v>
       </c>
       <c r="D11">
-        <v>1.015733563931834</v>
+        <v>1.07056769949168</v>
       </c>
       <c r="E11">
-        <v>0.9628220153384567</v>
+        <v>1.077125107267864</v>
       </c>
       <c r="F11">
-        <v>0.9923816564196498</v>
+        <v>1.084436691011298</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045938384569182</v>
+        <v>1.052854341936839</v>
       </c>
       <c r="J11">
-        <v>0.9651516390531802</v>
+        <v>1.081224883321466</v>
       </c>
       <c r="K11">
-        <v>1.030364745139653</v>
+        <v>1.07401121390971</v>
       </c>
       <c r="L11">
-        <v>0.9784808451920162</v>
+        <v>1.080546162000244</v>
       </c>
       <c r="M11">
-        <v>1.007448687976833</v>
+        <v>1.087833054761014</v>
       </c>
       <c r="N11">
-        <v>0.9665222650850761</v>
+        <v>1.082760346674011</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9277395597097962</v>
+        <v>1.074310602245474</v>
       </c>
       <c r="D12">
-        <v>1.01322857380808</v>
+        <v>1.070253089660974</v>
       </c>
       <c r="E12">
-        <v>0.958764561827359</v>
+        <v>1.076605347276907</v>
       </c>
       <c r="F12">
-        <v>0.9888718734066561</v>
+        <v>1.083986185106333</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044665105907833</v>
+        <v>1.052731066388176</v>
       </c>
       <c r="J12">
-        <v>0.9609514706404392</v>
+        <v>1.080689715889926</v>
       </c>
       <c r="K12">
-        <v>1.028106649062711</v>
+        <v>1.073741021136204</v>
       </c>
       <c r="L12">
-        <v>0.9747268316262093</v>
+        <v>1.080071212132816</v>
       </c>
       <c r="M12">
-        <v>1.004215421959266</v>
+        <v>1.087426767430806</v>
       </c>
       <c r="N12">
-        <v>0.9623161319514227</v>
+        <v>1.082224419243333</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9288105659767493</v>
+        <v>1.074443761068728</v>
       </c>
       <c r="D13">
-        <v>1.013770642874795</v>
+        <v>1.070320614655497</v>
       </c>
       <c r="E13">
-        <v>0.9596432777825437</v>
+        <v>1.076716896746665</v>
       </c>
       <c r="F13">
-        <v>0.989631717135331</v>
+        <v>1.084082872573371</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044940877868891</v>
+        <v>1.052757542299945</v>
       </c>
       <c r="J13">
-        <v>0.9618613192832117</v>
+        <v>1.080804575578681</v>
       </c>
       <c r="K13">
-        <v>1.028595525855946</v>
+        <v>1.073799022977018</v>
       </c>
       <c r="L13">
-        <v>0.9755399656949574</v>
+        <v>1.080173152418986</v>
       </c>
       <c r="M13">
-        <v>1.004915578060017</v>
+        <v>1.087513973240008</v>
       </c>
       <c r="N13">
-        <v>0.9632272726836294</v>
+        <v>1.08233944204602</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9322791508036989</v>
+        <v>1.074879814660227</v>
       </c>
       <c r="D14">
-        <v>1.015528605191267</v>
+        <v>1.070541711800221</v>
       </c>
       <c r="E14">
-        <v>0.9624903417630787</v>
+        <v>1.077082170366509</v>
       </c>
       <c r="F14">
-        <v>0.9920946355968032</v>
+        <v>1.084399475636039</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045834311590567</v>
+        <v>1.052844166752545</v>
       </c>
       <c r="J14">
-        <v>0.9648083987332292</v>
+        <v>1.081180675208115</v>
       </c>
       <c r="K14">
-        <v>1.030180091360448</v>
+        <v>1.073988899755865</v>
       </c>
       <c r="L14">
-        <v>0.978174035517221</v>
+        <v>1.080506930355972</v>
       </c>
       <c r="M14">
-        <v>1.00718435827976</v>
+        <v>1.087799496031397</v>
       </c>
       <c r="N14">
-        <v>0.9661785373245003</v>
+        <v>1.082716075780067</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9343861155214662</v>
+        <v>1.07514829034927</v>
       </c>
       <c r="D15">
-        <v>1.016598238696471</v>
+        <v>1.07067781992406</v>
       </c>
       <c r="E15">
-        <v>0.9642206760006277</v>
+        <v>1.077307054889626</v>
       </c>
       <c r="F15">
-        <v>0.9935922422889277</v>
+        <v>1.08459439229524</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046377232966266</v>
+        <v>1.052897442808034</v>
       </c>
       <c r="J15">
-        <v>0.9665988826545205</v>
+        <v>1.081412214608342</v>
       </c>
       <c r="K15">
-        <v>1.031143553165054</v>
+        <v>1.074105758921001</v>
       </c>
       <c r="L15">
-        <v>0.979774537698843</v>
+        <v>1.080712401289627</v>
       </c>
       <c r="M15">
-        <v>1.008563413787567</v>
+        <v>1.08797525319522</v>
       </c>
       <c r="N15">
-        <v>0.9679715639383315</v>
+        <v>1.0829479439928</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9462254459479602</v>
+        <v>1.076708051749913</v>
       </c>
       <c r="D16">
-        <v>1.022632779657245</v>
+        <v>1.071468254973639</v>
       </c>
       <c r="E16">
-        <v>0.9739559165161819</v>
+        <v>1.07861337523482</v>
       </c>
       <c r="F16">
-        <v>1.00202823892616</v>
+        <v>1.085726580969634</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04943016607053</v>
+        <v>1.053206072362823</v>
       </c>
       <c r="J16">
-        <v>0.9766636741538159</v>
+        <v>1.082757036454049</v>
       </c>
       <c r="K16">
-        <v>1.036569558262427</v>
+        <v>1.074783956717545</v>
       </c>
       <c r="L16">
-        <v>0.988773769492004</v>
+        <v>1.081905601506107</v>
       </c>
       <c r="M16">
-        <v>1.016324398823</v>
+        <v>1.088995772762099</v>
       </c>
       <c r="N16">
-        <v>0.9780506485960035</v>
+        <v>1.084294675639782</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9533129910581795</v>
+        <v>1.077683950528012</v>
       </c>
       <c r="D17">
-        <v>1.026264118524812</v>
+        <v>1.071962528829719</v>
       </c>
       <c r="E17">
-        <v>0.9797933185410279</v>
+        <v>1.079430534436532</v>
       </c>
       <c r="F17">
-        <v>1.007094537970031</v>
+        <v>1.086434764535959</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05125874403709</v>
+        <v>1.053398389775249</v>
       </c>
       <c r="J17">
-        <v>0.9826915443031137</v>
+        <v>1.083598143933855</v>
       </c>
       <c r="K17">
-        <v>1.039826797668333</v>
+        <v>1.075207650353503</v>
       </c>
       <c r="L17">
-        <v>0.9941651696599098</v>
+        <v>1.082651691951928</v>
       </c>
       <c r="M17">
-        <v>1.020979307293688</v>
+        <v>1.089633773605885</v>
       </c>
       <c r="N17">
-        <v>0.9840870790123196</v>
+        <v>1.085136977588685</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9573369326913792</v>
+        <v>1.078252291480623</v>
       </c>
       <c r="D18">
-        <v>1.028331773591519</v>
+        <v>1.072250280000458</v>
       </c>
       <c r="E18">
-        <v>0.9831104666724236</v>
+        <v>1.079906367714082</v>
       </c>
       <c r="F18">
-        <v>1.009976041695313</v>
+        <v>1.086847122599561</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052296926374303</v>
+        <v>1.053510108015427</v>
       </c>
       <c r="J18">
-        <v>0.9861145698803028</v>
+        <v>1.084087873692681</v>
       </c>
       <c r="K18">
-        <v>1.041678749769783</v>
+        <v>1.075454169336086</v>
       </c>
       <c r="L18">
-        <v>0.9972272462507724</v>
+        <v>1.083086031179812</v>
       </c>
       <c r="M18">
-        <v>1.02362476919343</v>
+        <v>1.09000514589319</v>
       </c>
       <c r="N18">
-        <v>0.9875149656784548</v>
+        <v>1.085627402819942</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9586913275133497</v>
+        <v>1.07844593256937</v>
       </c>
       <c r="D19">
-        <v>1.029028659055858</v>
+        <v>1.072348302957273</v>
       </c>
       <c r="E19">
-        <v>0.9842274345416012</v>
+        <v>1.080068479769913</v>
       </c>
       <c r="F19">
-        <v>1.010946721338687</v>
+        <v>1.086987606004737</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052646335248213</v>
+        <v>1.053548123791993</v>
       </c>
       <c r="J19">
-        <v>0.9872668068309199</v>
+        <v>1.084254711937165</v>
       </c>
       <c r="K19">
-        <v>1.042302489951203</v>
+        <v>1.075538122314645</v>
       </c>
       <c r="L19">
-        <v>0.9982580534774678</v>
+        <v>1.083233987846188</v>
       </c>
       <c r="M19">
-        <v>1.024515593374264</v>
+        <v>1.090131645785223</v>
       </c>
       <c r="N19">
-        <v>0.9886688389377054</v>
+        <v>1.08579447799387</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9525642005827508</v>
+        <v>1.077579337651438</v>
       </c>
       <c r="D20">
-        <v>1.025879831769969</v>
+        <v>1.071909554998336</v>
       </c>
       <c r="E20">
-        <v>0.9791762845886305</v>
+        <v>1.079342944218594</v>
       </c>
       <c r="F20">
-        <v>1.006558740303878</v>
+        <v>1.086358857167625</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051065548884874</v>
+        <v>1.05337780330512</v>
       </c>
       <c r="J20">
-        <v>0.9820546277823742</v>
+        <v>1.083507991774764</v>
       </c>
       <c r="K20">
-        <v>1.039482384307753</v>
+        <v>1.075162255720002</v>
       </c>
       <c r="L20">
-        <v>0.9935954508193419</v>
+        <v>1.082571730948912</v>
       </c>
       <c r="M20">
-        <v>1.020487234303323</v>
+        <v>1.08956540127608</v>
       </c>
       <c r="N20">
-        <v>0.9834492579970654</v>
+        <v>1.085046697403188</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9312641125477789</v>
+        <v>1.074751447693752</v>
       </c>
       <c r="D21">
-        <v>1.015013781334103</v>
+        <v>1.070476628638221</v>
       </c>
       <c r="E21">
-        <v>0.9616569901024693</v>
+        <v>1.076974642422129</v>
       </c>
       <c r="F21">
-        <v>0.9913735676377942</v>
+        <v>1.084306275844689</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045572812247</v>
+        <v>1.052818678054585</v>
       </c>
       <c r="J21">
-        <v>0.9639459069697373</v>
+        <v>1.081069962483881</v>
       </c>
       <c r="K21">
-        <v>1.029716188446374</v>
+        <v>1.073933012932994</v>
       </c>
       <c r="L21">
-        <v>0.9774031090978298</v>
+        <v>1.080408678780427</v>
       </c>
       <c r="M21">
-        <v>1.006520234398324</v>
+        <v>1.08771545066787</v>
       </c>
       <c r="N21">
-        <v>0.9653148207237752</v>
+        <v>1.082605205831066</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9165866949117573</v>
+        <v>1.072965128186286</v>
       </c>
       <c r="D22">
-        <v>1.007605175387058</v>
+        <v>1.069570593355378</v>
       </c>
       <c r="E22">
-        <v>0.949625172804386</v>
+        <v>1.075478093378174</v>
       </c>
       <c r="F22">
-        <v>0.9809777493868205</v>
+        <v>1.083009085204294</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041796638282134</v>
+        <v>1.052462944782016</v>
       </c>
       <c r="J22">
-        <v>0.9514808098314596</v>
+        <v>1.079528903552637</v>
       </c>
       <c r="K22">
-        <v>1.023027462934694</v>
+        <v>1.073154470722206</v>
       </c>
       <c r="L22">
-        <v>0.9662652747379691</v>
+        <v>1.079040824726038</v>
       </c>
       <c r="M22">
-        <v>0.9969356998643848</v>
+        <v>1.086545227851376</v>
       </c>
       <c r="N22">
-        <v>0.9528320217177947</v>
+        <v>1.081061958419377</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9245068094582019</v>
+        <v>1.073912894889243</v>
       </c>
       <c r="D23">
-        <v>1.011594534802102</v>
+        <v>1.070051389813801</v>
       </c>
       <c r="E23">
-        <v>0.9561133353754943</v>
+        <v>1.076272167318139</v>
       </c>
       <c r="F23">
-        <v>0.9865802006706207</v>
+        <v>1.08369739195482</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043833014287765</v>
+        <v>1.052651926210303</v>
       </c>
       <c r="J23">
-        <v>0.9582055532253519</v>
+        <v>1.080346637438122</v>
       </c>
       <c r="K23">
-        <v>1.026632173903389</v>
+        <v>1.073567734550254</v>
       </c>
       <c r="L23">
-        <v>0.9722730341391163</v>
+        <v>1.079766707829306</v>
       </c>
       <c r="M23">
-        <v>1.002103179103766</v>
+        <v>1.087166267183206</v>
       </c>
       <c r="N23">
-        <v>0.9595663150186451</v>
+        <v>1.081880853580775</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9529028841585365</v>
+        <v>1.077626610437636</v>
       </c>
       <c r="D24">
-        <v>1.026053629100784</v>
+        <v>1.071933493292593</v>
       </c>
       <c r="E24">
-        <v>0.9794553645063173</v>
+        <v>1.079382524943851</v>
       </c>
       <c r="F24">
-        <v>1.006801069784754</v>
+        <v>1.086393158643216</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051152932556182</v>
+        <v>1.053387106857382</v>
       </c>
       <c r="J24">
-        <v>0.9823427077549705</v>
+        <v>1.083548730353714</v>
       </c>
       <c r="K24">
-        <v>1.039638156890698</v>
+        <v>1.075182769498525</v>
       </c>
       <c r="L24">
-        <v>0.9938531355317617</v>
+        <v>1.082607864486626</v>
       </c>
       <c r="M24">
-        <v>1.020709794485068</v>
+        <v>1.089596298144722</v>
       </c>
       <c r="N24">
-        <v>0.9837377470762659</v>
+        <v>1.085087493835593</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9815843796113688</v>
+        <v>1.081901651799289</v>
       </c>
       <c r="D25">
-        <v>1.040875238135882</v>
+        <v>1.074096046230528</v>
       </c>
       <c r="E25">
-        <v>1.003140257595607</v>
+        <v>1.082960604043421</v>
       </c>
       <c r="F25">
-        <v>1.027411688842202</v>
+        <v>1.089493569387197</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05854502108628</v>
+        <v>1.054222339969202</v>
       </c>
       <c r="J25">
-        <v>1.006747804050133</v>
+        <v>1.087230442640307</v>
       </c>
       <c r="K25">
-        <v>1.052870506069131</v>
+        <v>1.077032893521622</v>
       </c>
       <c r="L25">
-        <v>1.01569001991988</v>
+        <v>1.08587194140761</v>
       </c>
       <c r="M25">
-        <v>1.039598870969668</v>
+        <v>1.09238639492479</v>
       </c>
       <c r="N25">
-        <v>1.008177501407471</v>
+        <v>1.088774434575931</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_173/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_173/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.085285357373827</v>
+        <v>1.002002075589616</v>
       </c>
       <c r="D2">
-        <v>1.075804248105593</v>
+        <v>1.051535301357229</v>
       </c>
       <c r="E2">
-        <v>1.085790653579353</v>
+        <v>1.020053549046162</v>
       </c>
       <c r="F2">
-        <v>1.091945119229056</v>
+        <v>1.042177869468889</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054874438299318</v>
+        <v>1.063779672711007</v>
       </c>
       <c r="J2">
-        <v>1.090140975215735</v>
+        <v>1.024123069374343</v>
       </c>
       <c r="K2">
-        <v>1.078489851521646</v>
+        <v>1.062320488858587</v>
       </c>
       <c r="L2">
-        <v>1.088450171361276</v>
+        <v>1.031240400413409</v>
       </c>
       <c r="M2">
-        <v>1.094588817171968</v>
+        <v>1.053079283670039</v>
       </c>
       <c r="N2">
-        <v>1.091689100441459</v>
+        <v>1.025577441601413</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.087727981886532</v>
+        <v>1.015726660486362</v>
       </c>
       <c r="D3">
-        <v>1.077035246297037</v>
+        <v>1.058741594104172</v>
       </c>
       <c r="E3">
-        <v>1.087832406976849</v>
+        <v>1.031441676135705</v>
       </c>
       <c r="F3">
-        <v>1.093713350435646</v>
+        <v>1.052139268990341</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055339924768057</v>
+        <v>1.067273224369785</v>
       </c>
       <c r="J3">
-        <v>1.092239953658483</v>
+        <v>1.035797592602048</v>
       </c>
       <c r="K3">
-        <v>1.079537221343549</v>
+        <v>1.06867423524335</v>
       </c>
       <c r="L3">
-        <v>1.090308249021628</v>
+        <v>1.041687459924656</v>
       </c>
       <c r="M3">
-        <v>1.096175191546702</v>
+        <v>1.062145805954677</v>
       </c>
       <c r="N3">
-        <v>1.093791059674352</v>
+        <v>1.037268543991187</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.089302210823541</v>
+        <v>1.024177629686277</v>
       </c>
       <c r="D4">
-        <v>1.077827588592081</v>
+        <v>1.063192081581098</v>
       </c>
       <c r="E4">
-        <v>1.089147715689942</v>
+        <v>1.038460078286499</v>
       </c>
       <c r="F4">
-        <v>1.094852229045761</v>
+        <v>1.058284914774382</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055637481483805</v>
+        <v>1.069410420342399</v>
       </c>
       <c r="J4">
-        <v>1.09359174519508</v>
+        <v>1.042982457116292</v>
       </c>
       <c r="K4">
-        <v>1.080210182827273</v>
+        <v>1.072583271277217</v>
       </c>
       <c r="L4">
-        <v>1.091504310248888</v>
+        <v>1.048115467378732</v>
       </c>
       <c r="M4">
-        <v>1.09719593976768</v>
+        <v>1.067727324720936</v>
       </c>
       <c r="N4">
-        <v>1.095144770909984</v>
+        <v>1.044463611837157</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.089962545482188</v>
+        <v>1.027637310342374</v>
       </c>
       <c r="D5">
-        <v>1.078159700573001</v>
+        <v>1.06501648692298</v>
       </c>
       <c r="E5">
-        <v>1.089699305117754</v>
+        <v>1.041334419222253</v>
       </c>
       <c r="F5">
-        <v>1.095329774034578</v>
+        <v>1.06080310597161</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055761709754973</v>
+        <v>1.070281693721495</v>
       </c>
       <c r="J5">
-        <v>1.094158543630963</v>
+        <v>1.045922727886068</v>
       </c>
       <c r="K5">
-        <v>1.080491972232219</v>
+        <v>1.074182256484126</v>
       </c>
       <c r="L5">
-        <v>1.092005671303806</v>
+        <v>1.050745559848005</v>
       </c>
       <c r="M5">
-        <v>1.097623712110326</v>
+        <v>1.070011554425456</v>
       </c>
       <c r="N5">
-        <v>1.095712374264658</v>
+        <v>1.04740805812868</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.090073333461648</v>
+        <v>1.028213002588684</v>
       </c>
       <c r="D6">
-        <v>1.078215406111953</v>
+        <v>1.065320194045386</v>
       </c>
       <c r="E6">
-        <v>1.089791840218525</v>
+        <v>1.041812768157765</v>
       </c>
       <c r="F6">
-        <v>1.095409883992166</v>
+        <v>1.061222252200416</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055782517755608</v>
+        <v>1.070426450454143</v>
       </c>
       <c r="J6">
-        <v>1.094253624928233</v>
+        <v>1.046411921190899</v>
       </c>
       <c r="K6">
-        <v>1.080539220462771</v>
+        <v>1.074448237620387</v>
       </c>
       <c r="L6">
-        <v>1.092089767118702</v>
+        <v>1.051183117461286</v>
       </c>
       <c r="M6">
-        <v>1.097695458497801</v>
+        <v>1.070391595092154</v>
       </c>
       <c r="N6">
-        <v>1.095807590588276</v>
+        <v>1.047897946144115</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.089311039974704</v>
+        <v>1.024224212151576</v>
       </c>
       <c r="D7">
-        <v>1.077832030152311</v>
+        <v>1.063216637206988</v>
       </c>
       <c r="E7">
-        <v>1.089155091380388</v>
+        <v>1.038498775445094</v>
       </c>
       <c r="F7">
-        <v>1.094858614861395</v>
+        <v>1.058318812358299</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055639144814616</v>
+        <v>1.069422166409633</v>
       </c>
       <c r="J7">
-        <v>1.093599324610461</v>
+        <v>1.043022050596591</v>
       </c>
       <c r="K7">
-        <v>1.08021395250559</v>
+        <v>1.072604806450118</v>
       </c>
       <c r="L7">
-        <v>1.091511015167703</v>
+        <v>1.048150885929972</v>
       </c>
       <c r="M7">
-        <v>1.097201660955182</v>
+        <v>1.067758083991037</v>
       </c>
       <c r="N7">
-        <v>1.095152361089003</v>
+        <v>1.044503261544739</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.086112185062391</v>
+        <v>1.006735746142631</v>
       </c>
       <c r="D8">
-        <v>1.076221148058232</v>
+        <v>1.054017489315256</v>
       </c>
       <c r="E8">
-        <v>1.086481902953986</v>
+        <v>1.023979827812708</v>
       </c>
       <c r="F8">
-        <v>1.092543811175247</v>
+        <v>1.045610672533907</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055032510940251</v>
+        <v>1.064987399211966</v>
       </c>
       <c r="J8">
-        <v>1.09085167839765</v>
+        <v>1.028150346787616</v>
       </c>
       <c r="K8">
-        <v>1.078844809207014</v>
+        <v>1.064512289469164</v>
       </c>
       <c r="L8">
-        <v>1.089079427840996</v>
+        <v>1.034844485963873</v>
       </c>
       <c r="M8">
-        <v>1.095126143584516</v>
+        <v>1.056206326815076</v>
       </c>
       <c r="N8">
-        <v>1.092400812903411</v>
+        <v>1.029610438210548</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.080425233092606</v>
+        <v>0.9720840538932152</v>
       </c>
       <c r="D9">
-        <v>1.073349715429244</v>
+        <v>1.035944223212911</v>
       </c>
       <c r="E9">
-        <v>1.08172519410482</v>
+        <v>0.9952844544921735</v>
       </c>
       <c r="F9">
-        <v>1.088423185686085</v>
+        <v>1.020566183387231</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053935277475849</v>
+        <v>1.056099465764255</v>
       </c>
       <c r="J9">
-        <v>1.08595948464054</v>
+        <v>0.9986626279009907</v>
       </c>
       <c r="K9">
-        <v>1.07639508135159</v>
+        <v>1.048479857842862</v>
       </c>
       <c r="L9">
-        <v>1.084745486745364</v>
+        <v>1.008454504265941</v>
       </c>
       <c r="M9">
-        <v>1.091423729042012</v>
+        <v>1.033334173833277</v>
       </c>
       <c r="N9">
-        <v>1.087501671670023</v>
+        <v>1.000080843380814</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.076597644989844</v>
+        <v>0.9454087636148203</v>
       </c>
       <c r="D10">
-        <v>1.071412322333998</v>
+        <v>1.022215232575166</v>
       </c>
       <c r="E10">
-        <v>1.078520918950357</v>
+        <v>0.9732837281238103</v>
       </c>
       <c r="F10">
-        <v>1.08564645213221</v>
+        <v>1.00144521916387</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053184276542904</v>
+        <v>1.049219488121637</v>
       </c>
       <c r="J10">
-        <v>1.08266186395706</v>
+        <v>0.9759692114495133</v>
       </c>
       <c r="K10">
-        <v>1.074735991687704</v>
+        <v>1.036194643405588</v>
       </c>
       <c r="L10">
-        <v>1.08182117119621</v>
+        <v>0.9881527095539777</v>
       </c>
       <c r="M10">
-        <v>1.088923568601901</v>
+        <v>1.01578842866814</v>
       </c>
       <c r="N10">
-        <v>1.084199367986931</v>
+        <v>0.9773551996750048</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.07493107349347</v>
+        <v>0.932683081722227</v>
       </c>
       <c r="D11">
-        <v>1.07056769949168</v>
+        <v>1.015733563931834</v>
       </c>
       <c r="E11">
-        <v>1.077125107267864</v>
+        <v>0.9628220153384565</v>
       </c>
       <c r="F11">
-        <v>1.084436691011298</v>
+        <v>0.9923816564196498</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052854341936839</v>
+        <v>1.045938384569183</v>
       </c>
       <c r="J11">
-        <v>1.081224883321466</v>
+        <v>0.9651516390531801</v>
       </c>
       <c r="K11">
-        <v>1.07401121390971</v>
+        <v>1.030364745139653</v>
       </c>
       <c r="L11">
-        <v>1.080546162000244</v>
+        <v>0.9784808451920157</v>
       </c>
       <c r="M11">
-        <v>1.087833054761014</v>
+        <v>1.007448687976833</v>
       </c>
       <c r="N11">
-        <v>1.082760346674011</v>
+        <v>0.9665222650850761</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.074310602245474</v>
+        <v>0.9277395597097935</v>
       </c>
       <c r="D12">
-        <v>1.070253089660974</v>
+        <v>1.013228573808079</v>
       </c>
       <c r="E12">
-        <v>1.076605347276907</v>
+        <v>0.9587645618273564</v>
       </c>
       <c r="F12">
-        <v>1.083986185106333</v>
+        <v>0.9888718734066539</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052731066388176</v>
+        <v>1.044665105907832</v>
       </c>
       <c r="J12">
-        <v>1.080689715889926</v>
+        <v>0.9609514706404365</v>
       </c>
       <c r="K12">
-        <v>1.073741021136204</v>
+        <v>1.028106649062709</v>
       </c>
       <c r="L12">
-        <v>1.080071212132816</v>
+        <v>0.9747268316262069</v>
       </c>
       <c r="M12">
-        <v>1.087426767430806</v>
+        <v>1.004215421959264</v>
       </c>
       <c r="N12">
-        <v>1.082224419243333</v>
+        <v>0.9623161319514202</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.074443761068728</v>
+        <v>0.9288105659767484</v>
       </c>
       <c r="D13">
-        <v>1.070320614655497</v>
+        <v>1.013770642874795</v>
       </c>
       <c r="E13">
-        <v>1.076716896746665</v>
+        <v>0.9596432777825429</v>
       </c>
       <c r="F13">
-        <v>1.084082872573371</v>
+        <v>0.9896317171353307</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052757542299945</v>
+        <v>1.044940877868891</v>
       </c>
       <c r="J13">
-        <v>1.080804575578681</v>
+        <v>0.9618613192832108</v>
       </c>
       <c r="K13">
-        <v>1.073799022977018</v>
+        <v>1.028595525855946</v>
       </c>
       <c r="L13">
-        <v>1.080173152418986</v>
+        <v>0.9755399656949567</v>
       </c>
       <c r="M13">
-        <v>1.087513973240008</v>
+        <v>1.004915578060016</v>
       </c>
       <c r="N13">
-        <v>1.08233944204602</v>
+        <v>0.9632272726836283</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.074879814660227</v>
+        <v>0.9322791508036966</v>
       </c>
       <c r="D14">
-        <v>1.070541711800221</v>
+        <v>1.015528605191266</v>
       </c>
       <c r="E14">
-        <v>1.077082170366509</v>
+        <v>0.9624903417630765</v>
       </c>
       <c r="F14">
-        <v>1.084399475636039</v>
+        <v>0.9920946355968018</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052844166752545</v>
+        <v>1.045834311590567</v>
       </c>
       <c r="J14">
-        <v>1.081180675208115</v>
+        <v>0.9648083987332269</v>
       </c>
       <c r="K14">
-        <v>1.073988899755865</v>
+        <v>1.030180091360447</v>
       </c>
       <c r="L14">
-        <v>1.080506930355972</v>
+        <v>0.978174035517219</v>
       </c>
       <c r="M14">
-        <v>1.087799496031397</v>
+        <v>1.007184358279758</v>
       </c>
       <c r="N14">
-        <v>1.082716075780067</v>
+        <v>0.9661785373244982</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.07514829034927</v>
+        <v>0.9343861155214693</v>
       </c>
       <c r="D15">
-        <v>1.07067781992406</v>
+        <v>1.016598238696472</v>
       </c>
       <c r="E15">
-        <v>1.077307054889626</v>
+        <v>0.9642206760006302</v>
       </c>
       <c r="F15">
-        <v>1.08459439229524</v>
+        <v>0.9935922422889293</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052897442808034</v>
+        <v>1.046377232966267</v>
       </c>
       <c r="J15">
-        <v>1.081412214608342</v>
+        <v>0.9665988826545233</v>
       </c>
       <c r="K15">
-        <v>1.074105758921001</v>
+        <v>1.031143553165055</v>
       </c>
       <c r="L15">
-        <v>1.080712401289627</v>
+        <v>0.9797745376988456</v>
       </c>
       <c r="M15">
-        <v>1.08797525319522</v>
+        <v>1.008563413787569</v>
       </c>
       <c r="N15">
-        <v>1.0829479439928</v>
+        <v>0.9679715639383345</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.076708051749913</v>
+        <v>0.946225445947961</v>
       </c>
       <c r="D16">
-        <v>1.071468254973639</v>
+        <v>1.022632779657245</v>
       </c>
       <c r="E16">
-        <v>1.07861337523482</v>
+        <v>0.9739559165161823</v>
       </c>
       <c r="F16">
-        <v>1.085726580969634</v>
+        <v>1.002028238926161</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053206072362823</v>
+        <v>1.04943016607053</v>
       </c>
       <c r="J16">
-        <v>1.082757036454049</v>
+        <v>0.9766636741538164</v>
       </c>
       <c r="K16">
-        <v>1.074783956717545</v>
+        <v>1.036569558262428</v>
       </c>
       <c r="L16">
-        <v>1.081905601506107</v>
+        <v>0.9887737694920044</v>
       </c>
       <c r="M16">
-        <v>1.088995772762099</v>
+        <v>1.016324398823</v>
       </c>
       <c r="N16">
-        <v>1.084294675639782</v>
+        <v>0.9780506485960041</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.077683950528012</v>
+        <v>0.9533129910581798</v>
       </c>
       <c r="D17">
-        <v>1.071962528829719</v>
+        <v>1.026264118524813</v>
       </c>
       <c r="E17">
-        <v>1.079430534436532</v>
+        <v>0.9797933185410281</v>
       </c>
       <c r="F17">
-        <v>1.086434764535959</v>
+        <v>1.007094537970032</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053398389775249</v>
+        <v>1.05125874403709</v>
       </c>
       <c r="J17">
-        <v>1.083598143933855</v>
+        <v>0.9826915443031139</v>
       </c>
       <c r="K17">
-        <v>1.075207650353503</v>
+        <v>1.039826797668333</v>
       </c>
       <c r="L17">
-        <v>1.082651691951928</v>
+        <v>0.99416516965991</v>
       </c>
       <c r="M17">
-        <v>1.089633773605885</v>
+        <v>1.020979307293689</v>
       </c>
       <c r="N17">
-        <v>1.085136977588685</v>
+        <v>0.9840870790123197</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.078252291480623</v>
+        <v>0.9573369326913765</v>
       </c>
       <c r="D18">
-        <v>1.072250280000458</v>
+        <v>1.028331773591517</v>
       </c>
       <c r="E18">
-        <v>1.079906367714082</v>
+        <v>0.9831104666724212</v>
       </c>
       <c r="F18">
-        <v>1.086847122599561</v>
+        <v>1.009976041695311</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053510108015427</v>
+        <v>1.052296926374302</v>
       </c>
       <c r="J18">
-        <v>1.084087873692681</v>
+        <v>0.9861145698803001</v>
       </c>
       <c r="K18">
-        <v>1.075454169336086</v>
+        <v>1.041678749769781</v>
       </c>
       <c r="L18">
-        <v>1.083086031179812</v>
+        <v>0.99722724625077</v>
       </c>
       <c r="M18">
-        <v>1.09000514589319</v>
+        <v>1.023624769193428</v>
       </c>
       <c r="N18">
-        <v>1.085627402819942</v>
+        <v>0.9875149656784524</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.07844593256937</v>
+        <v>0.9586913275133481</v>
       </c>
       <c r="D19">
-        <v>1.072348302957273</v>
+        <v>1.029028659055857</v>
       </c>
       <c r="E19">
-        <v>1.080068479769913</v>
+        <v>0.9842274345416001</v>
       </c>
       <c r="F19">
-        <v>1.086987606004737</v>
+        <v>1.010946721338685</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053548123791993</v>
+        <v>1.052646335248212</v>
       </c>
       <c r="J19">
-        <v>1.084254711937165</v>
+        <v>0.9872668068309186</v>
       </c>
       <c r="K19">
-        <v>1.075538122314645</v>
+        <v>1.042302489951202</v>
       </c>
       <c r="L19">
-        <v>1.083233987846188</v>
+        <v>0.9982580534774665</v>
       </c>
       <c r="M19">
-        <v>1.090131645785223</v>
+        <v>1.024515593374262</v>
       </c>
       <c r="N19">
-        <v>1.08579447799387</v>
+        <v>0.9886688389377041</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.077579337651438</v>
+        <v>0.9525642005827503</v>
       </c>
       <c r="D20">
-        <v>1.071909554998336</v>
+        <v>1.025879831769968</v>
       </c>
       <c r="E20">
-        <v>1.079342944218594</v>
+        <v>0.97917628458863</v>
       </c>
       <c r="F20">
-        <v>1.086358857167625</v>
+        <v>1.006558740303878</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05337780330512</v>
+        <v>1.051065548884874</v>
       </c>
       <c r="J20">
-        <v>1.083507991774764</v>
+        <v>0.9820546277823737</v>
       </c>
       <c r="K20">
-        <v>1.075162255720002</v>
+        <v>1.039482384307753</v>
       </c>
       <c r="L20">
-        <v>1.082571730948912</v>
+        <v>0.9935954508193414</v>
       </c>
       <c r="M20">
-        <v>1.08956540127608</v>
+        <v>1.020487234303322</v>
       </c>
       <c r="N20">
-        <v>1.085046697403188</v>
+        <v>0.9834492579970651</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.074751447693752</v>
+        <v>0.9312641125477783</v>
       </c>
       <c r="D21">
-        <v>1.070476628638221</v>
+        <v>1.015013781334103</v>
       </c>
       <c r="E21">
-        <v>1.076974642422129</v>
+        <v>0.9616569901024686</v>
       </c>
       <c r="F21">
-        <v>1.084306275844689</v>
+        <v>0.9913735676377942</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052818678054585</v>
+        <v>1.045572812247</v>
       </c>
       <c r="J21">
-        <v>1.081069962483881</v>
+        <v>0.9639459069697367</v>
       </c>
       <c r="K21">
-        <v>1.073933012932994</v>
+        <v>1.029716188446374</v>
       </c>
       <c r="L21">
-        <v>1.080408678780427</v>
+        <v>0.9774031090978292</v>
       </c>
       <c r="M21">
-        <v>1.08771545066787</v>
+        <v>1.006520234398324</v>
       </c>
       <c r="N21">
-        <v>1.082605205831066</v>
+        <v>0.9653148207237747</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.072965128186286</v>
+        <v>0.9165866949117537</v>
       </c>
       <c r="D22">
-        <v>1.069570593355378</v>
+        <v>1.007605175387057</v>
       </c>
       <c r="E22">
-        <v>1.075478093378174</v>
+        <v>0.9496251728043826</v>
       </c>
       <c r="F22">
-        <v>1.083009085204294</v>
+        <v>0.9809777493868176</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052462944782016</v>
+        <v>1.041796638282133</v>
       </c>
       <c r="J22">
-        <v>1.079528903552637</v>
+        <v>0.9514808098314561</v>
       </c>
       <c r="K22">
-        <v>1.073154470722206</v>
+        <v>1.023027462934693</v>
       </c>
       <c r="L22">
-        <v>1.079040824726038</v>
+        <v>0.9662652747379656</v>
       </c>
       <c r="M22">
-        <v>1.086545227851376</v>
+        <v>0.9969356998643819</v>
       </c>
       <c r="N22">
-        <v>1.081061958419377</v>
+        <v>0.9528320217177912</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.073912894889243</v>
+        <v>0.9245068094582015</v>
       </c>
       <c r="D23">
-        <v>1.070051389813801</v>
+        <v>1.011594534802101</v>
       </c>
       <c r="E23">
-        <v>1.076272167318139</v>
+        <v>0.9561133353754937</v>
       </c>
       <c r="F23">
-        <v>1.08369739195482</v>
+        <v>0.98658020067062</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052651926210303</v>
+        <v>1.043833014287765</v>
       </c>
       <c r="J23">
-        <v>1.080346637438122</v>
+        <v>0.9582055532253516</v>
       </c>
       <c r="K23">
-        <v>1.073567734550254</v>
+        <v>1.026632173903389</v>
       </c>
       <c r="L23">
-        <v>1.079766707829306</v>
+        <v>0.9722730341391159</v>
       </c>
       <c r="M23">
-        <v>1.087166267183206</v>
+        <v>1.002103179103766</v>
       </c>
       <c r="N23">
-        <v>1.081880853580775</v>
+        <v>0.9595663150186448</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.077626610437636</v>
+        <v>0.9529028841585352</v>
       </c>
       <c r="D24">
-        <v>1.071933493292593</v>
+        <v>1.026053629100784</v>
       </c>
       <c r="E24">
-        <v>1.079382524943851</v>
+        <v>0.9794553645063163</v>
       </c>
       <c r="F24">
-        <v>1.086393158643216</v>
+        <v>1.006801069784753</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053387106857382</v>
+        <v>1.051152932556182</v>
       </c>
       <c r="J24">
-        <v>1.083548730353714</v>
+        <v>0.9823427077549692</v>
       </c>
       <c r="K24">
-        <v>1.075182769498525</v>
+        <v>1.039638156890697</v>
       </c>
       <c r="L24">
-        <v>1.082607864486626</v>
+        <v>0.9938531355317608</v>
       </c>
       <c r="M24">
-        <v>1.089596298144722</v>
+        <v>1.020709794485067</v>
       </c>
       <c r="N24">
-        <v>1.085087493835593</v>
+        <v>0.9837377470762646</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.081901651799289</v>
+        <v>0.9815843796113701</v>
       </c>
       <c r="D25">
-        <v>1.074096046230528</v>
+        <v>1.040875238135883</v>
       </c>
       <c r="E25">
-        <v>1.082960604043421</v>
+        <v>1.003140257595607</v>
       </c>
       <c r="F25">
-        <v>1.089493569387197</v>
+        <v>1.027411688842203</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054222339969202</v>
+        <v>1.058545021086281</v>
       </c>
       <c r="J25">
-        <v>1.087230442640307</v>
+        <v>1.006747804050134</v>
       </c>
       <c r="K25">
-        <v>1.077032893521622</v>
+        <v>1.052870506069132</v>
       </c>
       <c r="L25">
-        <v>1.08587194140761</v>
+        <v>1.015690019919881</v>
       </c>
       <c r="M25">
-        <v>1.09238639492479</v>
+        <v>1.039598870969669</v>
       </c>
       <c r="N25">
-        <v>1.088774434575931</v>
+        <v>1.008177501407472</v>
       </c>
     </row>
   </sheetData>
